--- a/library/Library_J.PLAGGENBERG_09.12.19.xlsx
+++ b/library/Library_J.PLAGGENBERG_09.12.19.xlsx
@@ -76,7 +76,7 @@
     <t xml:space="preserve">GAGTTG</t>
   </si>
   <si>
-    <t xml:space="preserve">E7420</t>
+    <t xml:space="preserve">E7420L</t>
   </si>
   <si>
     <t xml:space="preserve">ACAGATA</t>
@@ -269,7 +269,7 @@
   <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:L17"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -363,7 +363,8 @@
       <c r="K2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="8" t="b">
+      <c r="L2" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -401,7 +402,8 @@
       <c r="K3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="8" t="b">
+      <c r="L3" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -439,7 +441,8 @@
       <c r="K4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="8" t="b">
+      <c r="L4" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -477,7 +480,8 @@
       <c r="K5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="8" t="b">
+      <c r="L5" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -515,7 +519,8 @@
       <c r="K6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="8" t="b">
+      <c r="L6" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -553,7 +558,8 @@
       <c r="K7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="8" t="b">
+      <c r="L7" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -591,7 +597,8 @@
       <c r="K8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="8" t="b">
+      <c r="L8" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -629,7 +636,8 @@
       <c r="K9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="8" t="b">
+      <c r="L9" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -667,7 +675,8 @@
       <c r="K10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="8" t="b">
+      <c r="L10" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -705,7 +714,8 @@
       <c r="K11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="8" t="b">
+      <c r="L11" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -743,7 +753,8 @@
       <c r="K12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="8" t="b">
+      <c r="L12" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -781,7 +792,8 @@
       <c r="K13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="8" t="b">
+      <c r="L13" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -819,7 +831,8 @@
       <c r="K14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="8" t="b">
+      <c r="L14" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -857,7 +870,8 @@
       <c r="K15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="8" t="b">
+      <c r="L15" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -895,7 +909,8 @@
       <c r="K16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="8" t="b">
+      <c r="L16" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -933,7 +948,8 @@
       <c r="K17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="8" t="b">
+      <c r="L17" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
